--- a/季报汇总-2024-07-26.xlsx
+++ b/季报汇总-2024-07-26.xlsx
@@ -724,7 +724,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:G5"/>
+  <dimension ref="B1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -799,7 +799,7 @@
     <row r="3" ht="14" customHeight="1">
       <c r="B3" s="34" t="inlineStr">
         <is>
-          <t>301030.SZ</t>
+          <t>301611.SZ</t>
         </is>
       </c>
       <c r="C3" s="29">
@@ -816,7 +816,7 @@
       </c>
       <c r="F3" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润12000.00万元至15000.00万元;增长幅度为16.14%至45.17%;上年同期业绩:净利润10332.38万元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润12034.41万元至14396.91万元;增长幅度为253.66%至323.08%;上年同期业绩:净利润3402.85万元;</t>
         </is>
       </c>
       <c r="G3" s="33">
@@ -827,7 +827,7 @@
     <row r="4" ht="14" customHeight="1">
       <c r="B4" s="34" t="inlineStr">
         <is>
-          <t>301015.SZ</t>
+          <t>600023.SH</t>
         </is>
       </c>
       <c r="C4" s="29">
@@ -844,7 +844,7 @@
       </c>
       <c r="F4" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润35995万元至37507万元;增长幅度为19%至24%;上年同期业绩:净利润30247.52万元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润361900.00万元至411900.00万元;增长幅度为30.23%至48.22%;</t>
         </is>
       </c>
       <c r="G4" s="33">
@@ -855,7 +855,7 @@
     <row r="5" ht="14" customHeight="1">
       <c r="B5" s="34" t="inlineStr">
         <is>
-          <t>300938.SZ</t>
+          <t>301030.SZ</t>
         </is>
       </c>
       <c r="C5" s="29">
@@ -872,7 +872,7 @@
       </c>
       <c r="F5" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润9026.13万元至9518.46万元;增长幅度为10%至16%;上年同期业绩:净利润8205.57万元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润12000.00万元至15000.00万元;增长幅度为16.14%至45.17%;上年同期业绩:净利润10332.38万元;</t>
         </is>
       </c>
       <c r="G5" s="33">
@@ -880,8 +880,62 @@
         <v/>
       </c>
     </row>
-    <row r="6" ht="14" customHeight="1"/>
-    <row r="7" ht="14" customHeight="1"/>
+    <row r="6" ht="14" customHeight="1">
+      <c r="B6" s="34" t="inlineStr">
+        <is>
+          <t>301015.SZ</t>
+        </is>
+      </c>
+      <c r="C6" s="29">
+        <f t="array" ref="C6">[1]!s_info_name(B6)</f>
+        <v/>
+      </c>
+      <c r="D6" s="39">
+        <f t="array" ref="D6">[1]!s_info_industry_sw_2021(B6,"",1)</f>
+        <v/>
+      </c>
+      <c r="E6" s="31">
+        <f t="array" ref="E6">IF([1]!s_info_industry_sw_2021(B6,"",2)="消费电子",分工!$E$4,VLOOKUP(D6,分工!$B$2:'分工'!$C$32,2,0))</f>
+        <v/>
+      </c>
+      <c r="F6" s="35" t="inlineStr">
+        <is>
+          <t>预计2024-01-01到2024-06-30业绩：净利润35995万元至37507万元;增长幅度为19%至24%;上年同期业绩:净利润30247.52万元;</t>
+        </is>
+      </c>
+      <c r="G6" s="33">
+        <f>IFERROR(VLOOKUP(C6,重点公司!$C$2:$E$800,2,FALSE),0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="14" customHeight="1">
+      <c r="B7" s="34" t="inlineStr">
+        <is>
+          <t>300938.SZ</t>
+        </is>
+      </c>
+      <c r="C7" s="29">
+        <f t="array" ref="C7">[1]!s_info_name(B7)</f>
+        <v/>
+      </c>
+      <c r="D7" s="39">
+        <f t="array" ref="D7">[1]!s_info_industry_sw_2021(B7,"",1)</f>
+        <v/>
+      </c>
+      <c r="E7" s="31">
+        <f t="array" ref="E7">IF([1]!s_info_industry_sw_2021(B7,"",2)="消费电子",分工!$E$4,VLOOKUP(D7,分工!$B$2:'分工'!$C$32,2,0))</f>
+        <v/>
+      </c>
+      <c r="F7" s="35" t="inlineStr">
+        <is>
+          <t>预计2024-01-01到2024-06-30业绩：净利润9026.13万元至9518.46万元;增长幅度为10%至16%;上年同期业绩:净利润8205.57万元;</t>
+        </is>
+      </c>
+      <c r="G7" s="33">
+        <f>IFERROR(VLOOKUP(C7,重点公司!$C$2:$E$800,2,FALSE),0)</f>
+        <v/>
+      </c>
+    </row>
     <row r="8" ht="14" customHeight="1"/>
     <row r="9" ht="14" customHeight="1"/>
     <row r="10" ht="14" customHeight="1"/>
